--- a/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
+++ b/InputData/trans/SoCDTtiNTY/Share of Cargo Dist Transported that is New This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\SoCDTtiNTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7068EE-DE0D-4380-BEB0-F0EE695126AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73732797-F0D5-4552-9011-A59D9397727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,7 +757,7 @@
         <v>5.8700000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>5.8000000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="E7">
         <v>5.8700000000000002E-2</v>
@@ -785,7 +785,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H7"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,25 +877,25 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>4.2000000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
